--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H2">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09434000000000002</v>
+        <v>0.036942</v>
       </c>
       <c r="N2">
-        <v>0.28302</v>
+        <v>0.110826</v>
       </c>
       <c r="O2">
-        <v>0.05191071108246545</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="P2">
-        <v>0.05191071108246544</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="Q2">
-        <v>0.07048320646000002</v>
+        <v>0.016860476568</v>
       </c>
       <c r="R2">
-        <v>0.6343488581400001</v>
+        <v>0.151744289112</v>
       </c>
       <c r="S2">
-        <v>0.001607651286910868</v>
+        <v>0.0004019565707501043</v>
       </c>
       <c r="T2">
-        <v>0.001607651286910868</v>
+        <v>0.0004019565707501043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H3">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.829335</v>
       </c>
       <c r="O3">
-        <v>0.5189484550226392</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="P3">
-        <v>0.5189484550226391</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="Q3">
-        <v>0.7046166452883333</v>
+        <v>0.4304399371133334</v>
       </c>
       <c r="R3">
-        <v>6.341549807594999</v>
+        <v>3.87395943402</v>
       </c>
       <c r="S3">
-        <v>0.01607159937054611</v>
+        <v>0.0102617598226341</v>
       </c>
       <c r="T3">
-        <v>0.01607159937054611</v>
+        <v>0.0102617598226341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H4">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.339699</v>
       </c>
       <c r="O4">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391025</v>
       </c>
       <c r="P4">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391026</v>
       </c>
       <c r="Q4">
-        <v>0.5826778590603333</v>
+        <v>0.3559493274653334</v>
       </c>
       <c r="R4">
-        <v>5.244100731543</v>
+        <v>3.203543947188</v>
       </c>
       <c r="S4">
-        <v>0.0132902978882555</v>
+        <v>0.008485891276662952</v>
       </c>
       <c r="T4">
-        <v>0.0132902978882555</v>
+        <v>0.008485891276662952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09434000000000002</v>
+        <v>0.036942</v>
       </c>
       <c r="N5">
-        <v>0.28302</v>
+        <v>0.110826</v>
       </c>
       <c r="O5">
-        <v>0.05191071108246545</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="P5">
-        <v>0.05191071108246544</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="Q5">
-        <v>1.862855784726667</v>
+        <v>0.729463837178</v>
       </c>
       <c r="R5">
-        <v>16.76570206254</v>
+        <v>6.565174534602001</v>
       </c>
       <c r="S5">
-        <v>0.0424898731209792</v>
+        <v>0.01739053942489257</v>
       </c>
       <c r="T5">
-        <v>0.0424898731209792</v>
+        <v>0.01739053942489257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.829335</v>
       </c>
       <c r="O6">
-        <v>0.5189484550226392</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="P6">
-        <v>0.5189484550226391</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="Q6">
         <v>18.62286436181056</v>
@@ -818,10 +818,10 @@
         <v>167.605779256295</v>
       </c>
       <c r="S6">
-        <v>0.424768868513694</v>
+        <v>0.4439721894115859</v>
       </c>
       <c r="T6">
-        <v>0.4247688685136939</v>
+        <v>0.4439721894115859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.339699</v>
       </c>
       <c r="O7">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391025</v>
       </c>
       <c r="P7">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391026</v>
       </c>
       <c r="Q7">
         <v>15.40004881870256</v>
@@ -880,10 +880,10 @@
         <v>138.600439368323</v>
       </c>
       <c r="S7">
-        <v>0.3512596765291566</v>
+        <v>0.3671397298637659</v>
       </c>
       <c r="T7">
-        <v>0.3512596765291566</v>
+        <v>0.3671397298637659</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.09434000000000002</v>
+        <v>0.036942</v>
       </c>
       <c r="N8">
-        <v>0.28302</v>
+        <v>0.110826</v>
       </c>
       <c r="O8">
-        <v>0.05191071108246545</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="P8">
-        <v>0.05191071108246544</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="Q8">
-        <v>0.3425484456600001</v>
+        <v>0.134136365058</v>
       </c>
       <c r="R8">
-        <v>3.082936010940001</v>
+        <v>1.207227285522</v>
       </c>
       <c r="S8">
-        <v>0.007813186674575373</v>
+        <v>0.003197833293391508</v>
       </c>
       <c r="T8">
-        <v>0.007813186674575371</v>
+        <v>0.003197833293391509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.829335</v>
       </c>
       <c r="O9">
-        <v>0.5189484550226392</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="P9">
-        <v>0.5189484550226391</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="Q9">
         <v>3.424437518555</v>
@@ -1004,10 +1004,10 @@
         <v>30.819937666995</v>
       </c>
       <c r="S9">
-        <v>0.07810798713839907</v>
+        <v>0.08163916103764338</v>
       </c>
       <c r="T9">
-        <v>0.07810798713839906</v>
+        <v>0.08163916103764338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>2.339699</v>
       </c>
       <c r="O10">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391025</v>
       </c>
       <c r="P10">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391026</v>
       </c>
       <c r="Q10">
         <v>2.831814909767</v>
@@ -1066,10 +1066,10 @@
         <v>25.486334187903</v>
       </c>
       <c r="S10">
-        <v>0.06459085947748329</v>
+        <v>0.06751093929867376</v>
       </c>
       <c r="T10">
-        <v>0.06459085947748329</v>
+        <v>0.06751093929867377</v>
       </c>
     </row>
   </sheetData>
